--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
+    <t>7dd0ac26-fb75-404e-95ff-670717c13e68</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
       </c>
     </row>
     <row r="68" spans="1:2">

--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>7dd0ac26-fb75-404e-95ff-670717c13e68</t>
+    <t>e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
       </c>
     </row>
     <row r="68" spans="1:2">

--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</t>
+    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,29 +1137,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75">
+    <row r="1" spans="1:16" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1">
+    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1">
+    <row r="5" spans="1:16" ht="20.7" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:16" ht="16.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1414,7 +1414,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.25">
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1">
+    <row r="22" spans="1:14" ht="24.45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.25">
+    <row r="39" spans="1:14" ht="19.8">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.9" customHeight="1">
+    <row r="63" spans="1:4" ht="31.95" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
@@ -2401,13 +2401,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="60">
+    <row r="67" spans="1:2" ht="57.6">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" ht="28.8">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>

--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
+    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,29 +1137,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75">
+    <row r="1" spans="1:16" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1">
+    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1">
+    <row r="5" spans="1:16" ht="20.7" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:16" ht="16.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1414,7 +1414,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.25">
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1">
+    <row r="22" spans="1:14" ht="24.45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.25">
+    <row r="39" spans="1:14" ht="19.8">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.9" customHeight="1">
+    <row r="63" spans="1:4" ht="31.95" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
@@ -2401,13 +2401,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="60">
+    <row r="67" spans="1:2" ht="57.6">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" ht="28.8">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>

--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>aapl</t>
   </si>
   <si>
-    <t>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
-  </si>
-  <si>
     <t>xbrlValues</t>
   </si>
   <si>
@@ -216,7 +213,10 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
+    <t>1550e713-c853-4a17-a6e5-7620b8c26129</t>
+  </si>
+  <si>
+    <t>https://csuite.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
   </si>
 </sst>
 </file>
@@ -843,12 +843,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,29 +1137,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.6">
+    <row r="1" spans="1:16" ht="24.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
+    <row r="2" spans="1:16" ht="41.25" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,13 +1229,13 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.7" customHeight="1">
+    <row r="5" spans="1:16" ht="20.65" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(B69&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0000320193</v>
+      <c r="B5" s="27" t="e">
+        <f ca="1">TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(B69&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="30"/>
@@ -1283,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" customHeight="1">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1414,7 +1414,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.8">
+    <row r="11" spans="1:16" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1504,9 +1504,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="P13" t="str">
-        <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+      <c r="P13" t="e">
+        <f ca="1">""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1740,8 +1740,8 @@
         <v>#NAME?</v>
       </c>
       <c r="C21" t="e">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;#REF!&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
-        <v>#REF!</v>
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;#REF!&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I21" s="24" t="e">
         <f ca="1"/>
@@ -1765,7 +1765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.45" customHeight="1">
+    <row r="22" spans="1:14" ht="24.4" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
+    <row r="32" spans="1:14" ht="21" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.8">
+    <row r="39" spans="1:14" ht="20.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,18 +2375,18 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.95" customHeight="1">
-      <c r="A63" s="56" t="s">
+    <row r="63" spans="1:4" ht="31.9" customHeight="1">
+      <c r="A63" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="55" t="s">
+      <c r="D63" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2397,30 +2397,30 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="57.6">
+    <row r="67" spans="1:2" ht="60">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
-        <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
+        <f>"https://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
+        <v>https://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/templates/Leases.xlsx
+++ b/templates/Leases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,10 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>1550e713-c853-4a17-a6e5-7620b8c26129</t>
-  </si>
-  <si>
     <t>https://csuite.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
+  </si>
+  <si>
+    <t>9171cbef-c943-46c0-8c37-1c64f5dc737a</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,29 +1137,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75">
+    <row r="1" spans="1:16" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1">
+    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1">
+    <row r="5" spans="1:16" ht="20.7" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:16" ht="16.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1414,7 +1414,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.25">
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1">
+    <row r="22" spans="1:14" ht="24.45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.25">
+    <row r="39" spans="1:14" ht="19.8">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,12 +2375,12 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.9" customHeight="1">
+    <row r="63" spans="1:4" ht="31.95" customHeight="1">
       <c r="A63" s="55" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="54" t="s">
         <v>62</v>
@@ -2401,13 +2401,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="60">
+    <row r="67" spans="1:2" ht="57.6">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"https://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>https://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
+        <v>https://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=9171cbef-c943-46c0-8c37-1c64f5dc737a</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2415,12 +2415,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" ht="28.8">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
